--- a/wash_P/DJI.xlsx
+++ b/wash_P/DJI.xlsx
@@ -68421,7 +68421,7 @@
         <v>0</v>
       </c>
       <c r="BV22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
